--- a/Files/Filenames_Pdf.xlsx
+++ b/Files/Filenames_Pdf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\SCL_Issue\Files\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\SCL_Issue\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -11887,7 +11887,7 @@
   <dimension ref="A1:B641"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
